--- a/retention_data_dictionary.xlsx
+++ b/retention_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sriesenberg\Documents\retention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83E3CD0-CB60-4C7E-8080-A5D791284CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FFEAE-7D4E-4314-B09F-18ACD42B158A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8EF0FA28-4429-4DDA-9815-205532264B64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="439">
   <si>
     <t>Field</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>MajorOffered_Mismatch</t>
   </si>
   <si>
-    <t>Primary Identifier</t>
-  </si>
-  <si>
     <t>Year CM started their 2 years of service</t>
   </si>
   <si>
@@ -1134,6 +1131,225 @@
   </si>
   <si>
     <t>The main thing we use coach information for is seeing how long they had been a coach so most of this isn't useful</t>
+  </si>
+  <si>
+    <t>Internal ID for Placement School</t>
+  </si>
+  <si>
+    <t>Name of Placement School</t>
+  </si>
+  <si>
+    <t>Region of Placement School</t>
+  </si>
+  <si>
+    <t>Contains information like 'Catholic School' or 'Charter School'</t>
+  </si>
+  <si>
+    <t>Contains information on grade levels in school, ie K-8 or HIGH</t>
+  </si>
+  <si>
+    <t>Percentage of students eligible for free or reduced price lunch</t>
+  </si>
+  <si>
+    <t>Another school ID, we tend to prefer the TFA school ID</t>
+  </si>
+  <si>
+    <t>1 if the school receives Title 1 funding</t>
+  </si>
+  <si>
+    <t>Column of NaNs, disregard</t>
+  </si>
+  <si>
+    <t>Address of school</t>
+  </si>
+  <si>
+    <t>City of Placement school</t>
+  </si>
+  <si>
+    <t>State of Placement school</t>
+  </si>
+  <si>
+    <t>Zip of Placement school</t>
+  </si>
+  <si>
+    <t>Not sure what the difference between this and the other school type code is</t>
+  </si>
+  <si>
+    <t>Congressional District of School</t>
+  </si>
+  <si>
+    <t>At TFA, the Placement Partner is the umbrella organization of the school, so it could be a school district or a charter network or just the school itself for some private schools</t>
+  </si>
+  <si>
+    <t>Region of Placement Partner</t>
+  </si>
+  <si>
+    <t>Most School District or Charter Network with a couple others</t>
+  </si>
+  <si>
+    <t>ID of Placement Partner</t>
+  </si>
+  <si>
+    <t>More information about the CM's coach</t>
+  </si>
+  <si>
+    <t>Primary Identifier, note that there are some duplicates</t>
+  </si>
+  <si>
+    <t>There are still some duplicates in this PID, honestly I'm not sure what's going on here, something to look in to</t>
+  </si>
+  <si>
+    <t>I don’t know what this is</t>
+  </si>
+  <si>
+    <t>The stage of the CM when the data was taken, Y1S stands for Year 1 Start</t>
+  </si>
+  <si>
+    <t>When the CM applied to the program</t>
+  </si>
+  <si>
+    <t>Not useful</t>
+  </si>
+  <si>
+    <t>Whether or not the CM deferred after being accepted, unclear how high quality this data is</t>
+  </si>
+  <si>
+    <t>Region of CM</t>
+  </si>
+  <si>
+    <t>How highly the CM ranked their region in their preferences, 1-3</t>
+  </si>
+  <si>
+    <t>Not 100% how this works, but the CMs must rank the regions they would want to be placed, a 99 means the region was unranked</t>
+  </si>
+  <si>
+    <t>The number of regions the CM selected as high preference</t>
+  </si>
+  <si>
+    <t>The subject the CM taught</t>
+  </si>
+  <si>
+    <t>When the CM started the application</t>
+  </si>
+  <si>
+    <t>When the CM submitted the appliation</t>
+  </si>
+  <si>
+    <t>The deadline for the application</t>
+  </si>
+  <si>
+    <t>Year CM was offerred spot in Corps</t>
+  </si>
+  <si>
+    <t>When CM was awarded degree</t>
+  </si>
+  <si>
+    <t>Selectivity of undergraduate university</t>
+  </si>
+  <si>
+    <t>LIC = Low Income Community</t>
+  </si>
+  <si>
+    <t>I don't know what this is</t>
+  </si>
+  <si>
+    <t>Pell grants is our proxy for LIC</t>
+  </si>
+  <si>
+    <t>The score the selection model gave the CM</t>
+  </si>
+  <si>
+    <t>These are all scores the CM receives during the selection process</t>
+  </si>
+  <si>
+    <t>Another score given by recruiters</t>
+  </si>
+  <si>
+    <t>How highly the CM ranked the subject they ended up teaching</t>
+  </si>
+  <si>
+    <t>If the CM wanted to teach Special Education</t>
+  </si>
+  <si>
+    <t>How the CM exited the Corps</t>
+  </si>
+  <si>
+    <t>If the CM exited early, why?</t>
+  </si>
+  <si>
+    <t>Notes on why the CM exited early</t>
+  </si>
+  <si>
+    <t>Contains information on if the CM taught special education or ESL</t>
+  </si>
+  <si>
+    <t>Age of CM</t>
+  </si>
+  <si>
+    <t>When the survey was administered for the following survey items, always end of institute</t>
+  </si>
+  <si>
+    <t>NPS - How likely is it that you would recommend Teach For America to a friend or family member?</t>
+  </si>
+  <si>
+    <t>CSI - Teach For America creates a welcoming environment for me, given my background (e.g., race, ethnicity, class, gender, sexual orientation, religion).</t>
+  </si>
+  <si>
+    <t>CSI - My day-to-day experiences at Teach For America match the expectations I had when I went through the recruitment and matriculation process.</t>
+  </si>
+  <si>
+    <t>CSI - I feel valued as a person by Teach For America staff.</t>
+  </si>
+  <si>
+    <t>CSI - My opinions matter at Teach For America.</t>
+  </si>
+  <si>
+    <t>CSI - I am proud to be a part of Teach For America.</t>
+  </si>
+  <si>
+    <t>CSI - Within Teach For America, I feel part of a community where corps members are driven to help each other increase collective impact.</t>
+  </si>
+  <si>
+    <t>CSI - I feel like I can be myself at Teach For America.</t>
+  </si>
+  <si>
+    <t>CSI - Overall, I believe the preparation I received from Teach For America so far is valuable in my efforts to become a successful teacher.</t>
+  </si>
+  <si>
+    <t>CSI - My experience as a corps member has confirmed or strengthened my belief that Teach For America is making a critical contribution to addressing the problem of educational inequity.</t>
+  </si>
+  <si>
+    <t>CSI - I have the ongoing support I need from Teach For America (through Institute or regional staff, online tools, etc.) to be a successful teacher.</t>
+  </si>
+  <si>
+    <t>CALI - I am confident that one day all children will have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>If the survey taker answered at least one CSI question</t>
+  </si>
+  <si>
+    <t>CSI - I think Teach For America's staff members' expectations of me are appropriate.</t>
+  </si>
+  <si>
+    <t>CALI - I am growing the capabilities I need (e.g., knowledge, skills, relationships, etc.) to play a valuable role in the movement to ensure that all children have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I am effectively contributing to the effort to ensure that all children have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I am committed to working, now and in the future, to ensure that all children have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I know what role I want to play in ensuring that all children have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I have a working theory of what it will take for all children to have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I am working in partnership with families and community members to ensure that all children have the opportunity to attain an excellent education.</t>
+  </si>
+  <si>
+    <t>CALI - I feel part of a larger movement working to ensure that all children have the opportunity to attain an excellent education.</t>
   </si>
 </sst>
 </file>
@@ -1202,16 +1418,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,19 +1765,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1580,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709B3C03-DB9A-4A06-8676-BA2AC5DC742B}">
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:C319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1621,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1634,7 +1864,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1890,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1673,7 +1903,7 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1681,7 +1911,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1714,7 +1944,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1722,7 +1952,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1730,23 +1960,23 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>347</v>
+      <c r="B22" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>348</v>
+      <c r="B23" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1769,7 +1999,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +2007,7 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +2015,7 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +2023,7 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1814,7 +2044,7 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,7 +2065,7 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1843,7 +2073,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1851,7 +2081,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1859,7 +2089,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1867,7 +2097,7 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +2113,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1891,7 +2121,7 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1899,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1907,7 +2137,7 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,7 +2145,7 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,642 +2158,892 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>194</v>
       </c>
